--- a/Resource Links/Tech-Bootcamp-Links.xlsx
+++ b/Resource Links/Tech-Bootcamp-Links.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71AB6CC1-2618-4194-8F2E-718B425FE7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Online Training\Apexon\GS-Training\Resource Links\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE39019-FB7C-4AD7-9C77-FD2B2950B15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource Links" sheetId="1" r:id="rId1"/>
@@ -97,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,11 +536,11 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -543,7 +548,7 @@
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -567,11 +572,11 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -585,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -599,7 +604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -613,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -627,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.5">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -643,12 +648,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{6614F0BA-E14B-4CF2-926F-CF5DAB01194B}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{0C8BF935-1079-4255-9D07-C93C89C0D00D}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{418A416B-CE9C-4292-A99D-A142A3F5E6ED}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{E00CA03C-062C-44AF-A5CA-5532C5548383}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{B0689BD3-D1B4-45CD-BA2E-986B540DF4C9}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{D53C1EA8-9390-47F9-81D8-A7AD6413C13D}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{0C8BF935-1079-4255-9D07-C93C89C0D00D}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{418A416B-CE9C-4292-A99D-A142A3F5E6ED}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{E00CA03C-062C-44AF-A5CA-5532C5548383}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{B0689BD3-D1B4-45CD-BA2E-986B540DF4C9}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{D53C1EA8-9390-47F9-81D8-A7AD6413C13D}"/>
+    <hyperlink ref="D2" r:id="rId6" display="https://isplahd-my.sharepoint.com/:x:/g/personal/stephen_samuels_apexon_com/EckQFKh7DbJBvlAvL8RH9-EBj63yTMh2IFRQU0-b-Ac9tg?e=XRiw3v" xr:uid="{0394AC41-0135-48C0-9AD4-0BB65A4F424A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resource Links/Tech-Bootcamp-Links.xlsx
+++ b/Resource Links/Tech-Bootcamp-Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Online Training\Apexon\GS-Training\Resource Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE39019-FB7C-4AD7-9C77-FD2B2950B15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC061C2-508F-4F40-B45F-539047152140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Serial No.</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Consolidated Scores and Reports.xlsx</t>
-  </si>
-  <si>
-    <t>Attendance/Assessment Scores/Assignment Status</t>
-  </si>
-  <si>
     <t>Tech Bootcamp Recordings</t>
   </si>
   <si>
@@ -96,6 +90,15 @@
   </si>
   <si>
     <t>StevenJoseph19/GS-Training: Repository for Training Materials for Advanced Java and DSA of GSA Training</t>
+  </si>
+  <si>
+    <t>Batch 3 - Consolidated Scores and Reports.xlsx</t>
+  </si>
+  <si>
+    <t>Batch 4 - Consolidated Scores and Reports.xlsx</t>
+  </si>
+  <si>
+    <t>Attendance/Assignment and Demos Status</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,7 +188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -195,8 +197,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -533,11 +540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,98 +569,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{0C8BF935-1079-4255-9D07-C93C89C0D00D}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{418A416B-CE9C-4292-A99D-A142A3F5E6ED}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{E00CA03C-062C-44AF-A5CA-5532C5548383}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{B0689BD3-D1B4-45CD-BA2E-986B540DF4C9}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{D53C1EA8-9390-47F9-81D8-A7AD6413C13D}"/>
-    <hyperlink ref="D2" r:id="rId6" display="https://isplahd-my.sharepoint.com/:x:/g/personal/stephen_samuels_apexon_com/EckQFKh7DbJBvlAvL8RH9-EBj63yTMh2IFRQU0-b-Ac9tg?e=XRiw3v" xr:uid="{0394AC41-0135-48C0-9AD4-0BB65A4F424A}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{0C8BF935-1079-4255-9D07-C93C89C0D00D}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{418A416B-CE9C-4292-A99D-A142A3F5E6ED}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{E00CA03C-062C-44AF-A5CA-5532C5548383}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{B0689BD3-D1B4-45CD-BA2E-986B540DF4C9}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{D53C1EA8-9390-47F9-81D8-A7AD6413C13D}"/>
+    <hyperlink ref="D2" r:id="rId6" display="https://isplahd-my.sharepoint.com/:x:/g/personal/stephen_samuels_apexon_com/EckQFKh7DbJBvlAvL8RH9-EBj63yTMh2IFRQU0-b-Ac9tg?e=dCk35z" xr:uid="{9BC5AD07-7EC4-4D2A-B1AE-FE6AFA2BA7AE}"/>
+    <hyperlink ref="D4" r:id="rId7" display="https://isplahd-my.sharepoint.com/:x:/g/personal/stephen_samuels_apexon_com/EerP1pcja5VAkArC5lhHm0oBv7Dg-whvo3Dm3T8ebfzFrA?e=oFEzZs" xr:uid="{F6FDB76F-DA0D-4793-8EB7-EAB0AC807236}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
